--- a/lab_meeting_tests/test_signals_new/results/eeg_theme_park_results.xlsx
+++ b/lab_meeting_tests/test_signals_new/results/eeg_theme_park_results.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex_G\Proton Drive\agimeno310\My files\Personal Projects\Autodidact\eeg_theme_park\lab_meeting_tests\test_signals_new\results\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vumc365-my.sharepoint.com/personal/alexander_f_gimeno_1_vumc_org/Documents/Desktop/local_theme_park/eeg_theme_park/lab_meeting_tests/test_signals_new/results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC20A4C6-A70D-4C5C-800C-22C86D35D024}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_2B59D2BFD3905A51B3DB381159D50835760FFB68" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F9FCA7B3-96E8-41B7-94D7-ED09A83603C2}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,33 +20,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>ID</t>
   </si>
   <si>
-    <t>power_8_10_hz_median (uV^2)</t>
-  </si>
-  <si>
-    <t>power_8_10_hz_IQR (uV^2)</t>
-  </si>
-  <si>
-    <t>power_8_10_hz_TSS (uV^2/sec)</t>
-  </si>
-  <si>
-    <t>power_8_10_hz_MKT</t>
-  </si>
-  <si>
-    <t>spectral_edge_frequency_median (Hz)</t>
-  </si>
-  <si>
-    <t>spectral_edge_frequency_IQR (Hz)</t>
-  </si>
-  <si>
-    <t>spectral_edge_frequency_TSS (Hz/sec)</t>
-  </si>
-  <si>
-    <t>spectral_edge_frequency_MKT</t>
+    <t>8_10_average_power_simple_mean (uV^2/Hz)</t>
+  </si>
+  <si>
+    <t>8_10_average_power_simple_median (uV^2/Hz)</t>
+  </si>
+  <si>
+    <t>8_10_average_power_simple_IQR (uV^2/Hz)</t>
+  </si>
+  <si>
+    <t>8_10_average_power_simple_TSS (uV^2/Hz/sec)</t>
+  </si>
+  <si>
+    <t>8_10_average_power_simple_MKT</t>
   </si>
   <si>
     <t>test_1_1</t>
@@ -433,25 +424,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="28.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="34" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="30.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="34.21875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="27.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="43.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -470,228 +452,165 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="B2">
+        <v>49.999999999444739</v>
+      </c>
+      <c r="C2">
+        <v>49.999999999443673</v>
+      </c>
+      <c r="D2">
+        <v>6.5938365878537297E-12</v>
+      </c>
+      <c r="E2">
+        <v>3.616943530620623E-15</v>
+      </c>
+      <c r="F2">
+        <v>0.89045636436427578</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="B3">
+        <v>115.9971994937864</v>
+      </c>
+      <c r="C3">
+        <v>112.180897481659</v>
+      </c>
+      <c r="D3">
+        <v>73.34831619816984</v>
+      </c>
+      <c r="E3">
+        <v>4.1077508987866142E-2</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="B4">
+        <v>1062.0863713133031</v>
+      </c>
+      <c r="C4">
+        <v>49.999999999444292</v>
+      </c>
+      <c r="D4">
+        <v>8.4057205640419852E-12</v>
+      </c>
+      <c r="E4">
+        <v>3.6799458491156697E-15</v>
+      </c>
+      <c r="F4">
+        <v>0.71493903446032747</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>9</v>
       </c>
-      <c r="B2">
-        <v>49.999944029928002</v>
-      </c>
-      <c r="C2">
-        <v>7.0595811507701001E-7</v>
-      </c>
-      <c r="D2">
-        <v>-9.4739031434680031E-17</v>
-      </c>
-      <c r="E2">
-        <v>-4.9227307158962593E-4</v>
-      </c>
-      <c r="F2">
-        <v>9</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="B5">
+        <v>1616.4080420858129</v>
+      </c>
+      <c r="C5">
+        <v>118.4310872979885</v>
+      </c>
+      <c r="D5">
+        <v>95.350210255160505</v>
+      </c>
+      <c r="E5">
+        <v>4.118992036388304E-2</v>
+      </c>
+      <c r="F5">
+        <v>0.83973840582257997</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>10</v>
       </c>
-      <c r="B3">
-        <v>112.180798902273</v>
-      </c>
-      <c r="C3">
-        <v>73.348261655559625</v>
-      </c>
-      <c r="D3">
-        <v>4.1077478541358209E-2</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <v>9</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="B6">
+        <v>49.999999999568267</v>
+      </c>
+      <c r="C6">
+        <v>49.999999999670919</v>
+      </c>
+      <c r="D6">
+        <v>2.276578925375361E-10</v>
+      </c>
+      <c r="E6">
+        <v>2.2105774001425339E-15</v>
+      </c>
+      <c r="F6">
+        <v>0.11106847443104111</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>11</v>
       </c>
-      <c r="B4">
-        <v>49.999944118213151</v>
-      </c>
-      <c r="C4">
-        <v>9.6511543290489499E-7</v>
-      </c>
-      <c r="D4">
-        <v>6.6285055004746214E-12</v>
-      </c>
-      <c r="E4">
-        <v>6.6455696243612836E-3</v>
-      </c>
-      <c r="F4">
-        <v>9</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>8.0344717378599426E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="B7">
+        <v>113.16384300583429</v>
+      </c>
+      <c r="C7">
+        <v>103.4034124880488</v>
+      </c>
+      <c r="D7">
+        <v>75.017412992167451</v>
+      </c>
+      <c r="E7">
+        <v>4.0541337251747772E-2</v>
+      </c>
+      <c r="F7">
+        <v>0.99999999999999978</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>12</v>
       </c>
-      <c r="B5">
-        <v>118.430984145393</v>
-      </c>
-      <c r="C5">
-        <v>95.350142680209174</v>
-      </c>
-      <c r="D5">
-        <v>4.1171068082698457E-2</v>
-      </c>
-      <c r="E5">
-        <v>0.83798038043669343</v>
-      </c>
-      <c r="F5">
-        <v>9</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>0.13946847375891619</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="B8">
+        <v>62.488226499347157</v>
+      </c>
+      <c r="C8">
+        <v>49.999999999444363</v>
+      </c>
+      <c r="D8">
+        <v>8.4980911196907982E-12</v>
+      </c>
+      <c r="E8">
+        <v>3.6487329674167297E-15</v>
+      </c>
+      <c r="F8">
+        <v>0.74596789697360832</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>13</v>
       </c>
-      <c r="B6">
-        <v>50.000035065640049</v>
-      </c>
-      <c r="C6">
-        <v>1.051639124654002E-4</v>
-      </c>
-      <c r="D6">
-        <v>-1.280290481039022E-9</v>
-      </c>
-      <c r="E6">
-        <v>-9.8442789438050099E-2</v>
-      </c>
-      <c r="F6">
-        <v>9</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7">
-        <v>103.4033205925069</v>
-      </c>
-      <c r="C7">
-        <v>75.016975543574119</v>
-      </c>
-      <c r="D7">
-        <v>4.054110728660841E-2</v>
-      </c>
-      <c r="E7">
-        <v>0.99999999999999978</v>
-      </c>
-      <c r="F7">
-        <v>9</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8">
-        <v>49.999944159013758</v>
-      </c>
-      <c r="C8">
-        <v>8.292913236118693E-7</v>
-      </c>
-      <c r="D8">
-        <v>3.0210150329936231E-16</v>
-      </c>
-      <c r="E8">
-        <v>1.6174117897754521E-3</v>
-      </c>
-      <c r="F8">
-        <v>9</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>16</v>
-      </c>
       <c r="B9">
-        <v>253.8563422219633</v>
+        <v>243.9481635407285</v>
       </c>
       <c r="C9">
-        <v>128.92702701775431</v>
+        <v>253.8564687251081</v>
       </c>
       <c r="D9">
-        <v>6.2011687074740023E-2</v>
+        <v>128.92703753813711</v>
       </c>
       <c r="E9">
+        <v>6.2011718556295163E-2</v>
+      </c>
+      <c r="F9">
         <v>0.32857494462220033</v>
-      </c>
-      <c r="F9">
-        <v>9</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
